--- a/status.xlsx
+++ b/status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Downloads\movu_postgress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1179779-025A-4827-9F3A-91F10C0655C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE118B6C-EFD8-4341-90DF-927CA7261BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45140441-1F8C-4D29-9D88-084A215A5BD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{45140441-1F8C-4D29-9D88-084A215A5BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>addresses</t>
   </si>
@@ -171,13 +172,115 @@
   </si>
   <si>
     <t xml:space="preserve">10 concecionarias </t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>0 - 1000</t>
+  </si>
+  <si>
+    <t>Id inicial</t>
+  </si>
+  <si>
+    <t>Id final</t>
+  </si>
+  <si>
+    <t>Initial car</t>
+  </si>
+  <si>
+    <t>End car</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Rav4</t>
+  </si>
+  <si>
+    <t>1000 - 2000</t>
+  </si>
+  <si>
+    <t>Sorento</t>
+  </si>
+  <si>
+    <t>Kicks</t>
+  </si>
+  <si>
+    <t>2000-3000</t>
+  </si>
+  <si>
+    <t>Sportage</t>
+  </si>
+  <si>
+    <t>Cavalier</t>
+  </si>
+  <si>
+    <t>3000-4000</t>
+  </si>
+  <si>
+    <t>Jetta</t>
+  </si>
+  <si>
+    <t>Versa</t>
+  </si>
+  <si>
+    <t>4000-5000</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Clase Cla</t>
+  </si>
+  <si>
+    <t>5000-6000</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>6000-7000</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Grand i10</t>
+  </si>
+  <si>
+    <t>Yaris</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Sentra</t>
+  </si>
+  <si>
+    <t>7000-8000</t>
+  </si>
+  <si>
+    <t>8000-9000</t>
+  </si>
+  <si>
+    <t>9000-10000</t>
+  </si>
+  <si>
+    <t>Serie 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,16 +288,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,12 +317,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F91BEDF-5D33-4CE8-8428-BFC4B25122D0}">
   <dimension ref="B2:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,4 +921,297 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98130F03-129F-478F-8B68-77826FF8DEB2}">
+  <dimension ref="B2:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="7" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5001</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6001</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8001</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9001</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10001</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>